--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2950.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2950.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.145970216388051</v>
+        <v>0.8624513149261475</v>
       </c>
       <c r="B1">
-        <v>2.799634770114807</v>
+        <v>0.6703342199325562</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.491618871688843</v>
       </c>
       <c r="D1">
-        <v>2.173635099561352</v>
+        <v>3.443800210952759</v>
       </c>
       <c r="E1">
-        <v>1.255739282929189</v>
+        <v>0.956577479839325</v>
       </c>
     </row>
   </sheetData>
